--- a/dados/professores.xlsx
+++ b/dados/professores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mislenedalila/Documents/pos-ia-dev/tech-challenge-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mislenedalila/Documents/pos-ia-dev/tech-challenge-2/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AA0493-A605-4245-AE88-9244F2E6D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87507ECB-63B3-FD4C-9EEF-3A8BC995440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11880" yWindow="2400" windowWidth="27840" windowHeight="16740" xr2:uid="{555479C2-0A7B-2D4F-A18C-CD94BF9585B2}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>CHAPA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>CODPROF</t>
   </si>
@@ -47,98 +44,60 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>DISCIPLINASHABILITADAS</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
     <t>ALTAMIR</t>
   </si>
   <si>
     <t>0223SI0006</t>
   </si>
   <si>
-    <t>00077</t>
-  </si>
-  <si>
     <t>GERALDO</t>
   </si>
   <si>
     <t>0223SI0010</t>
   </si>
   <si>
-    <t>00363</t>
-  </si>
-  <si>
     <t>SANDRO</t>
   </si>
   <si>
-    <t>0223SI0007;0423SI0019</t>
-  </si>
-  <si>
-    <t>00523</t>
-  </si>
-  <si>
-    <t>BARROS</t>
-  </si>
-  <si>
-    <t>0223SI0009;0423SI0020</t>
-  </si>
-  <si>
-    <t>00815</t>
-  </si>
-  <si>
     <t>LILIS</t>
   </si>
   <si>
-    <t>0223SI0008;0423SI0022</t>
-  </si>
-  <si>
-    <t>03293</t>
-  </si>
-  <si>
-    <t>DALILA</t>
-  </si>
-  <si>
-    <t>0423SI0024</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>MARINHO</t>
-  </si>
-  <si>
-    <t>0423SI0023</t>
-  </si>
-  <si>
-    <t>00017</t>
-  </si>
-  <si>
     <t>DIANE</t>
   </si>
   <si>
     <t>0223SI0011</t>
   </si>
   <si>
-    <t>00024</t>
-  </si>
-  <si>
     <t>ALEXANDRE</t>
   </si>
   <si>
-    <t>0423SI0021</t>
+    <t>0223SI0007</t>
+  </si>
+  <si>
+    <t>0223SI0008</t>
+  </si>
+  <si>
+    <t>0223SI0009</t>
+  </si>
+  <si>
+    <t>CODDISC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,22 +119,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -189,13 +165,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EDD1831-2F3B-8E4D-A311-FB2734F7E17E}" name="Tabela2" displayName="Tabela2" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10" xr:uid="{1EDD1831-2F3B-8E4D-A311-FB2734F7E17E}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{786AB659-D6BB-5648-8B60-EA3A65165E9B}" name="CHAPA" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EDD1831-2F3B-8E4D-A311-FB2734F7E17E}" name="Tabela2" displayName="Tabela2" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{1EDD1831-2F3B-8E4D-A311-FB2734F7E17E}"/>
+  <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{01E36543-6766-4042-B286-27ECB53A8327}" name="CODPROF"/>
     <tableColumn id="3" xr3:uid="{8AA25510-9CAC-6141-BA8F-BA5311FCD515}" name="NOME"/>
-    <tableColumn id="5" xr3:uid="{E9061C70-9258-EF40-81AC-6493E9B0CB35}" name="DISCIPLINASHABILITADAS"/>
+    <tableColumn id="5" xr3:uid="{E9061C70-9258-EF40-81AC-6493E9B0CB35}" name="CODDISC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -518,155 +493,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20DA85E-1DED-934D-AD38-33FA554CA646}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>20224</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20174</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>20060</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20367</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20229</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>20174</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20148</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20152</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>20367</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B5">
-        <v>20197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>20229</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>21156</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>20277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>20224</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>20152</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
